--- a/Mapping.xlsx
+++ b/Mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paypal-my.sharepoint.com/personal/vavashishtha_paypal_com/Documents/Python_Oracle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vavashishtha\OneDrive - PayPal\Python_Oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{38E3D51F-A706-471B-A548-0719CF3517EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BD3A25F7-8110-44EB-B1BD-DD7B4D2742E8}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{38E3D51F-A706-471B-A548-0719CF3517EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FAE6695A-ADAF-4CD7-9CD4-B4F27B06D9FA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12463" windowHeight="4629" xr2:uid="{423F3ED1-5AFF-4298-96AF-CD6E387E58C5}"/>
   </bookViews>
@@ -431,7 +431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C15F3D-7134-4FFC-865C-8F2E0CD1E7AD}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
